--- a/biology/Zoologie/Dendrophryniscus_skuki/Dendrophryniscus_skuki.xlsx
+++ b/biology/Zoologie/Dendrophryniscus_skuki/Dendrophryniscus_skuki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrophryniscus skuki  est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrophryniscus skuki  est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Bahia au Brésil[1]. Elle se rencontre à Itacaré à 13 m d'altitude (?).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Bahia au Brésil. Elle se rencontre à Itacaré à 13 m d'altitude (?).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 26,2 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 26,2 mm
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Omar Skuk Sugliano[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Omar Skuk Sugliano.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite dans le genre Rhinella par Ulisses Caramaschi, sur la base de sa proximité avec Rhinella boulengeri Chaparro, Pramuk, Gluesenkamp &amp; Frost, 2007. Cette espèce étant transférée dans le genre Dendrophryniscus par Fouquet et al.[3] sous le nom de Dendrophryniscus proboscideus (Boulenger, 1882). Caramaschi a déplacé cette espèce dans Dendrophryniscus[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite dans le genre Rhinella par Ulisses Caramaschi, sur la base de sa proximité avec Rhinella boulengeri Chaparro, Pramuk, Gluesenkamp &amp; Frost, 2007. Cette espèce étant transférée dans le genre Dendrophryniscus par Fouquet et al. sous le nom de Dendrophryniscus proboscideus (Boulenger, 1882). Caramaschi a déplacé cette espèce dans Dendrophryniscus.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Caramaschi, 2012 : A new species of beaked toad, Rhinella (Anura: Bufonidae), from the State of Bahia, Brazil. Zoologia, vol. 29, p. 343–348 (texte intégral).</t>
         </is>
